--- a/img/Start/Leerdoel Planning.xlsx
+++ b/img/Start/Leerdoel Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Portfolio-Smart-Industry\img\Start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD3C53-63C3-46AA-AC80-4668429D1A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA38B4A-B7B8-4244-AC2C-312F39DFE604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26355" yWindow="3060" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leerdoelen" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Smart Start</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Website stuctuur afmaken</t>
   </si>
   <si>
-    <t>Website opvullen met competenties en bwijsmaterial</t>
-  </si>
-  <si>
     <t>Hello World video</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>TOM model toepassen op IICr3ate. (hieruit vragen opstellen)</t>
   </si>
   <si>
-    <t>Werkend product oplevern aan de opdrachtgever</t>
-  </si>
-  <si>
     <t>Aan het einde van mijn minor wil ik actief bijdrage hebben geleverd aan de werksfeer zowel binnen als buiten het team.
 Aan het einde van mijn minor wil ik een groter professioneel netwerk hebben opgebouwd.</t>
   </si>
@@ -332,9 +326,6 @@
   </si>
   <si>
     <t>Onderzoek uitvoeren mbt het project binnen ICr3ate.</t>
-  </si>
-  <si>
-    <t>Actief bijdragen leveren aan de prodjectgroep --&gt; SolidWorks, Arduino/Esp32, Actielijstenopstellen, Audio opnames, PvE opstellen.</t>
   </si>
   <si>
     <t>Actief bijdrage leveren aan de werksfeer zowel binnen als buiten het team.
@@ -356,6 +347,18 @@
   </si>
   <si>
     <t>Aan het eind van de minor wil ik een complex probleem/vraagstuk hebben aangekaart of hebben toegelicht aan de opdrachtgever, de minordocenten of mijn groepsgenoten.</t>
+  </si>
+  <si>
+    <t>Complexe eisen en vragen in kaart brengen bij de opdrachtgever</t>
+  </si>
+  <si>
+    <t>Website opvullen met competenties en bwijsmateriaal</t>
+  </si>
+  <si>
+    <t>Werkend product opleveren aan de opdrachtgever</t>
+  </si>
+  <si>
+    <t>Actief bijdragen leveren aan de projectgroep --&gt; SolidWorks, Arduino/Esp32, Actielijsten opstellen, Audio opnames, PvE opstellen.</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1524,7 @@
       <c r="E8" s="54"/>
       <c r="F8" s="52"/>
       <c r="G8" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1549,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
@@ -1585,7 +1588,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="52"/>
       <c r="G10" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2351,9 +2354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF010F3B-3C62-4B04-895E-F8968B635354}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2545,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>31</v>
@@ -2606,7 +2609,7 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -2758,7 +2761,7 @@
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
       <c r="L7" s="69" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="M7" s="69"/>
       <c r="N7" s="69"/>
@@ -2796,33 +2799,33 @@
         <v>49</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
       <c r="M8" s="72"/>
       <c r="N8" s="72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O8" s="72"/>
       <c r="P8" s="72"/>
       <c r="Q8" s="72"/>
       <c r="R8" s="72"/>
       <c r="S8" s="72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T8" s="73"/>
       <c r="U8" s="1"/>
@@ -2845,7 +2848,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +2873,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
       <c r="T9" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -2904,7 +2907,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="67" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J10" s="67"/>
       <c r="K10" s="67"/>
@@ -2953,7 +2956,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N11" s="67"/>
       <c r="O11" s="67"/>
@@ -2985,20 +2988,20 @@
     <row r="12" spans="1:39" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63"/>
       <c r="B12" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
